--- a/DATA FOR IMPORT EXPORT/BCA/BCA-Sem-6-Subject-list-with-code-1.xlsx
+++ b/DATA FOR IMPORT EXPORT/BCA/BCA-Sem-6-Subject-list-with-code-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\CMSv5\DATA FOR IMPORT EXPORT\BCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DA3456-0BCD-4DA9-B76E-869589340C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C1FD9-E980-454D-A73A-4D402ED3F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{D15763FE-9220-4030-8F09-2B4A066F4722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D15763FE-9220-4030-8F09-2B4A066F4722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Programe</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">DATABASE PROGRAMMING (PL/SQL) USING ORACLE </t>
-  </si>
-  <si>
-    <t>-BCAM305-3C</t>
   </si>
   <si>
     <t>Advance JAVA</t>
@@ -609,11 +606,12 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -725,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -755,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -782,10 +780,10 @@
         <v>27197</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -812,10 +810,10 @@
         <v>27198</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -842,13 +840,13 @@
         <v>27102</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
@@ -872,10 +870,10 @@
         <v>27200</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -902,10 +900,10 @@
         <v>27207</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
